--- a/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/HistogramsandSkewnessHW.xlsx
+++ b/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/HistogramsandSkewnessHW.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\Documents\statsmicrosoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramneekm\Documents\datasc\Essential Statistics for Data Analysis using Excel\Module1Homework-NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$I$4:$I$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$7:$I$50</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$4:$G$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$7:$G$50</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$4:$H$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$7:$H$50</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$4:$G$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$7:$G$50</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$7:$G$50</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>REIT</t>
   </si>
@@ -61,12 +76,60 @@
   <si>
     <t>Problem 1</t>
   </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +145,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,13 +170,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +220,2345 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.422316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.270307167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.118298333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0337105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.185719333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.337728167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A28-477E-80CC-743E91077301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="444892840"/>
+        <c:axId val="444895792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="444892840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="444895792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444895792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="444892840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>REIT</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>REIT</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{68AE2756-1C2E-4BAA-B870-5F2D1D7C841B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.10000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Gold</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Gold</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{50C545E0-D44C-45D5-A6F0-DDB81C5B7CA0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.10000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Bond</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Bond</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{89A07D14-813A-49C1-8279-F0DF69CDF04B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.10000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C8662B-FA9A-4FCB-A491-B4D4C5A8BA27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47F1538-7241-460E-AFB8-3CFE95A3D9C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9525" y="19050"/>
+              <a:ext cx="6000750" cy="3324225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4867BF98-6898-4840-896C-088E5C0D5A9A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3352800"/>
+              <a:ext cx="6038850" cy="3286125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FB4EA5-6DF9-4BA2-AB17-8BCA2FE45A58}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="6858000"/>
+              <a:ext cx="5962650" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="F7:I50" totalsRowShown="0">
+  <autoFilter ref="F7:I50"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Year"/>
+    <tableColumn id="2" name="REIT"/>
+    <tableColumn id="3" name="Gold"/>
+    <tableColumn id="4" name="Bonds"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,10 +2824,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>-0.42231600000000002</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>-0.27030716666666665</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>-0.11829833333333334</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3.3710499999999977E-2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.18571933333333335</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.33772816666666672</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.6460465116279075E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.5045310354774426E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.2399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9.8658697730477612E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9.7335386378737485E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-5.8539244654947975E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.30858247451298165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.43930000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.3281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.2878000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.11265884306976746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.6872493118022537E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.4493012000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.30736349210220137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9.4472316277260021E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.1132045131708352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.2385324584104014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.786942416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-0.326013514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.460928902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.8443302520000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,5 +3841,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>